--- a/レビュー結果記録（分析1回目）.xlsx
+++ b/レビュー結果記録（分析1回目）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64053BEA-3840-4906-871A-0C752AC263F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A625A2B-E273-49E7-B9B0-5386D78EA380}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="330" windowWidth="16065" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -313,35 +313,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マークを置くは、盤としての操作ではないか。</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マークを置くは、マスの操作になるのでマスの操作に入れる。</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,6 +486,41 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークを置くは、他のクラスの操作としても考えられるのではないか。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+  </si>
+  <si>
+    <t>マークを置くは、マスクラスの操作になるのでマスクラスの操作に入れる。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,50 +905,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,8 +1319,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,10 +1332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1338,10 +1344,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1350,66 +1356,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1418,10 +1424,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
@@ -1430,10 +1436,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -1442,50 +1448,50 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1500,6 +1506,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1510,17 +1527,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1540,8 +1546,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1578,7 +1584,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1598,29 +1606,33 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G3" s="9">
         <v>43986</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1628,20 +1640,22 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="9">
         <v>43986</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1649,20 +1663,22 @@
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="9">
         <v>43986</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1670,20 +1686,22 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9">
         <v>43986</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1691,13 +1709,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9">
         <v>43986</v>
@@ -1862,6 +1880,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2045,35 +2078,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2095,9 +2103,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/レビュー結果記録（分析1回目）.xlsx
+++ b/レビュー結果記録（分析1回目）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A625A2B-E273-49E7-B9B0-5386D78EA380}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E86384-9B67-4999-A2A1-F5E82BA21A0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="330" windowWidth="16065" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -521,6 +521,16 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸井(敬称略)</t>
+    <rPh sb="0" eb="2">
+      <t>マルイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケイショウリャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,6 +915,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,38 +954,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,10 +1342,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1344,10 +1354,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1356,66 +1366,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1424,10 +1434,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
@@ -1436,10 +1446,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -1448,50 +1458,50 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1506,17 +1516,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1527,6 +1526,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1880,21 +1890,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2078,10 +2073,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2103,19 +2123,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>